--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3131100.025643923</v>
+        <v>3124083.010752211</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>57.66595549467288</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>353.9487446662073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>70.03735562253955</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>8.389005322401392</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>24.56649633070097</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>14.92708396620965</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.0246247964035</v>
+        <v>49.45256041646001</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>194.9453656527042</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>97.2915873868107</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>62.27914576410206</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.264003285458957</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9700322506496</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.4016882597743</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0821196639542</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634799</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.3941630732811</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498018</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.4851017050637</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>21.71198953517992</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151918</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>16.12839455148874</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>177.6778654977374</v>
+        <v>161.817511795895</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>179.6486415128799</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>50.66276464781902</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>58.4016882597743</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.21476555771774</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>0.1661384044145893</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>26.97444673955056</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>166.268736572826</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>159.5746663460717</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056524</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2583.871961655107</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2365.237294627169</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2111.475509265261</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y2" t="n">
-        <v>2108.418929351565</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2139.36441672415</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C4" t="n">
-        <v>2068.619613065019</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D4" t="n">
-        <v>2068.619613065019</v>
+        <v>357.2197656505683</v>
       </c>
       <c r="E4" t="n">
-        <v>2068.619613065019</v>
+        <v>209.3066720681752</v>
       </c>
       <c r="F4" t="n">
-        <v>2068.619613065019</v>
+        <v>62.41672457026485</v>
       </c>
       <c r="G4" t="n">
-        <v>2068.619613065019</v>
+        <v>62.41672457026485</v>
       </c>
       <c r="H4" t="n">
-        <v>2068.619613065019</v>
+        <v>62.41672457026485</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2321.012881554389</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>2321.012881554389</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1571.689018870909</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.726501930497</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D5" t="n">
-        <v>1202.726501930497</v>
+        <v>879.7184058617563</v>
       </c>
       <c r="E5" t="n">
-        <v>816.938249332253</v>
+        <v>493.9301532635121</v>
       </c>
       <c r="F5" t="n">
-        <v>405.9523445426454</v>
+        <v>82.94424847390451</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>69.02084441249541</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.288858935031</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.288858935031</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>597.8010803716834</v>
+        <v>678.176902977687</v>
       </c>
       <c r="S7" t="n">
-        <v>597.8010803716834</v>
+        <v>678.176902977687</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.315630222944</v>
+        <v>2255.520561484593</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1886.558044544181</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1142.504093339187</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>731.5181885495792</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2543.846070854967</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2543.846070854967</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2290.084285493059</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2290.084285493059</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>1937.315630222944</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.315630222944</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.315630222944</v>
+        <v>2642.120401548715</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036376</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036376</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614622</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357134</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014716</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>285.8510101265796</v>
+        <v>500.1394333084168</v>
       </c>
       <c r="C10" t="n">
-        <v>285.8510101265796</v>
+        <v>500.1394333084168</v>
       </c>
       <c r="D10" t="n">
-        <v>285.8510101265796</v>
+        <v>350.022793896081</v>
       </c>
       <c r="E10" t="n">
-        <v>285.8510101265796</v>
+        <v>202.1097003136879</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>55.21975281577753</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>55.21975281577753</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>55.21975281577753</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>55.21975281577753</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>285.8510101265796</v>
+        <v>500.1394333084168</v>
       </c>
       <c r="Y10" t="n">
-        <v>285.8510101265796</v>
+        <v>500.1394333084168</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5062,10 +5062,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5080,13 +5080,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1016.198248099061</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>761.5137598931742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>472.0965898562135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,22 +5281,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.130185042679</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1010.024422429056</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>755.3399342231696</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>465.9227641862091</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>465.9227641862091</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>245.130185042679</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="17">
@@ -5512,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.0324822735073</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>506.0324822735073</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>506.0324822735073</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0324822735073</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735073</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5740,25 +5740,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823784</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5773,13 +5773,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.2468244550147</v>
+        <v>994.3109288932103</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>825.3747459653034</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1483.274753684101</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1283.354743599653</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1059.569328389159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1059.569328389159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>804.8848401832718</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>804.8848401832718</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X22" t="n">
-        <v>576.8952892852544</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y22" t="n">
-        <v>576.8952892852544</v>
+        <v>994.3109288932103</v>
       </c>
     </row>
     <row r="23">
@@ -5983,34 +5983,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,13 +6244,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>993.2877828087276</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>824.3515998808207</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1282.704952845688</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1282.704952845688</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>993.2877828087276</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>993.2877828087276</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>993.2877828087276</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W31" t="n">
-        <v>1064.759190940159</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>836.769640042142</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>972.2646934632137</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632137</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1117.53298621802</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1117.53298621802</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>862.8484980121334</v>
       </c>
       <c r="W34" t="n">
-        <v>1244.231782352015</v>
+        <v>862.8484980121334</v>
       </c>
       <c r="X34" t="n">
-        <v>1193.057272606744</v>
+        <v>634.8589471141161</v>
       </c>
       <c r="Y34" t="n">
-        <v>972.2646934632137</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="35">
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,19 +7162,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>515.3536117832385</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C40" t="n">
-        <v>346.4174288553317</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D40" t="n">
-        <v>346.4174288553317</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E40" t="n">
-        <v>346.4174288553317</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F40" t="n">
-        <v>346.4174288553317</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>178.2421071751523</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>964.135741824786</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>964.135741824786</v>
+        <v>985.8343999908507</v>
       </c>
       <c r="W40" t="n">
-        <v>964.135741824786</v>
+        <v>696.41722995389</v>
       </c>
       <c r="X40" t="n">
-        <v>736.1461909267687</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y40" t="n">
-        <v>515.3536117832385</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3486.402309815211</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>3486.402309815211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3486.402309815211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3486.402309815211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>4660.934562929845</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>4660.934562929845</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>4406.250074723958</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W43" t="n">
-        <v>4116.832904686998</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X43" t="n">
-        <v>3888.84335378898</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y43" t="n">
-        <v>3668.05077464545</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636255</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526318</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7806,16 +7806,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765196</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706327</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336721</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>727.1135926675564</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>308.1251096272033</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776738</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>6.267320147927705</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0.155232734623155</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02688494965013888</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>94.47925069872909</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>196.8726638169149</v>
       </c>
     </row>
     <row r="23">
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338557</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>270.1089578470886</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>108.8451328388536</v>
+        <v>124.705486540696</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>41.89891954550933</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>175.0468907412181</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>108.8451328388535</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>68.69906280981839</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>251.9715049194134</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>118.4466012833807</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>52.31591677926878</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>20.25731383586557</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338477</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>744790.5744110562</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>744790.5744110562</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110565</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110565</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="G2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="G2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672198</v>
-      </c>
       <c r="I2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="J2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="K2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="N2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,16 +26426,16 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687074</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26447,7 +26447,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
@@ -26459,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-161100.364926445</v>
+        <v>-161100.3649264449</v>
       </c>
       <c r="C6" t="n">
-        <v>428867.5142880995</v>
+        <v>428867.5142881001</v>
       </c>
       <c r="D6" t="n">
-        <v>428867.5142880995</v>
+        <v>428867.5142880994</v>
       </c>
       <c r="E6" t="n">
-        <v>5875.978554735921</v>
+        <v>4901.387295014031</v>
       </c>
       <c r="F6" t="n">
-        <v>531036.0150316319</v>
+        <v>530061.4237719107</v>
       </c>
       <c r="G6" t="n">
-        <v>531036.0150316322</v>
+        <v>530061.4237719104</v>
       </c>
       <c r="H6" t="n">
-        <v>531036.0150316325</v>
+        <v>530061.4237719105</v>
       </c>
       <c r="I6" t="n">
-        <v>531036.0150316323</v>
+        <v>530061.4237719104</v>
       </c>
       <c r="J6" t="n">
-        <v>354612.7958390394</v>
+        <v>353638.2045793172</v>
       </c>
       <c r="K6" t="n">
-        <v>531036.015031632</v>
+        <v>530061.4237719104</v>
       </c>
       <c r="L6" t="n">
-        <v>531036.0150316325</v>
+        <v>530061.4237719106</v>
       </c>
       <c r="M6" t="n">
-        <v>396234.999797795</v>
+        <v>395260.4085380732</v>
       </c>
       <c r="N6" t="n">
-        <v>531036.0150316323</v>
+        <v>530061.4237719106</v>
       </c>
       <c r="O6" t="n">
-        <v>531036.0150316325</v>
+        <v>530061.4237719104</v>
       </c>
       <c r="P6" t="n">
-        <v>531036.0150316319</v>
+        <v>530061.4237719105</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26752,13 +26752,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>116.7497573142986</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>32.28919398984624</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>97.20946547608828</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>126.5766164699368</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>389.217673690094</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.9956887981475</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27821,25 +27821,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>17.64056718375429</v>
+        <v>97.21263156369781</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>218.8388043680908</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>77.12412542216083</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>83.14190225882919</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>43.93595590307806</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.633897664003251e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>618.5494866776696</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36913,7 +36913,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36925,10 +36925,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091987</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3124083.010752211</v>
+        <v>3129022.273601244</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.66595549467288</v>
+        <v>142.9046269258104</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>8.389005322401392</v>
+        <v>14.5268783873314</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>378.4326166767232</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>14.92708396620965</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>49.45256041646001</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>139.459062921783</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>194.9453656527042</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>181.161195631909</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.264003285458957</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1.264003285459112</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>58.4016882597743</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>129.0275057367278</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498018</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>73.21532344290732</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>21.71198953517992</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>220.4855699130511</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>16.12839455148874</v>
+        <v>265.041326752187</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>161.817511795895</v>
+        <v>49.62468329227902</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>179.6486415128799</v>
+        <v>190.6405752120378</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>135.2182982137615</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>114.9309043193593</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.1661384044145893</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>203.3807067317122</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>166.268736572826</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>159.5746663460717</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.64213257536664</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533145</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733133</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2583.871961655107</v>
+        <v>2552.800983012353</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.237294627169</v>
+        <v>2334.166315984416</v>
       </c>
       <c r="U2" t="n">
-        <v>2111.475509265261</v>
+        <v>2080.404530622508</v>
       </c>
       <c r="V2" t="n">
-        <v>1780.41262192169</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W2" t="n">
-        <v>1780.41262192169</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X2" t="n">
-        <v>1780.41262192169</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1780.41262192169</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>507.3364050629041</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>357.2197656505683</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>209.3066720681752</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>62.41672457026485</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
-        <v>62.41672457026485</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H4" t="n">
-        <v>62.41672457026485</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1606.946621408918</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>1237.984104468507</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D5" t="n">
-        <v>879.7184058617563</v>
+        <v>835.9098068403443</v>
       </c>
       <c r="E5" t="n">
-        <v>493.9301532635121</v>
+        <v>450.1215542421001</v>
       </c>
       <c r="F5" t="n">
-        <v>82.94424847390451</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>69.02084441249541</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.54646147304</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>678.176902977687</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>678.176902977687</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>450.8687156462887</v>
+        <v>587.2612438814011</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.520561484593</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.558044544181</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>1528.292345937431</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.504093339187</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>731.5181885495792</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4849,7 +4849,7 @@
         <v>2642.120401548715</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548715</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036376</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036376</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614622</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357134</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014716</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.1394333084168</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>500.1394333084168</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>350.022793896081</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>202.1097003136879</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>55.21975281577753</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>55.21975281577753</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>55.21975281577753</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>55.21975281577753</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036444</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>726.852213211021</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>726.852213211021</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>726.852213211021</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>726.852213211021</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>726.852213211021</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>726.852213211021</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>726.852213211021</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084168</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084168</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5226,16 +5226,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
         <v>325.2066423583032</v>
@@ -5260,28 +5260,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.3840174432676</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
         <v>265.3924131404652</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1168.665446597972</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735073</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,19 +5527,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5661,16 +5661,16 @@
         <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5740,37 +5740,37 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207831</v>
@@ -5779,7 +5779,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>994.3109288932103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>825.3747459653034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>1244.231782352015</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>1016.242231453998</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>994.3109288932103</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5986,31 +5986,31 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6220,13 +6220,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6238,19 +6238,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>993.2877828087276</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C28" t="n">
-        <v>824.3515998808207</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D28" t="n">
-        <v>674.2349604684849</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684849</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>1282.704952845688</v>
+        <v>696.41722995389</v>
       </c>
       <c r="V28" t="n">
-        <v>1282.704952845688</v>
+        <v>696.41722995389</v>
       </c>
       <c r="W28" t="n">
-        <v>993.2877828087276</v>
+        <v>696.41722995389</v>
       </c>
       <c r="X28" t="n">
-        <v>993.2877828087276</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y28" t="n">
-        <v>993.2877828087276</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,31 +6451,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V31" t="n">
-        <v>709.4512536188989</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>883.1107261099196</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>655.1211752119023</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>414.0663679705859</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C34" t="n">
         <v>245.130185042679</v>
@@ -6843,19 +6843,19 @@
         <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1117.53298621802</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U34" t="n">
-        <v>1117.53298621802</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V34" t="n">
-        <v>862.8484980121334</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W34" t="n">
-        <v>862.8484980121334</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X34" t="n">
-        <v>634.8589471141161</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y34" t="n">
-        <v>414.0663679705859</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>985.8343999908507</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>696.41722995389</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>468.4276790558727</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>247.6350999123426</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1133.156678913841</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W43" t="n">
-        <v>843.7395088768801</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X43" t="n">
-        <v>615.7499579788628</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>565.9270610048577</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C46" t="n">
-        <v>565.9270610048577</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
         <v>247.6350999123426</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>955.1031435655738</v>
+        <v>1197.118517124372</v>
       </c>
       <c r="X46" t="n">
-        <v>727.1135926675564</v>
+        <v>969.128966226355</v>
       </c>
       <c r="Y46" t="n">
-        <v>727.1135926675564</v>
+        <v>748.3363870828249</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23712,16 +23712,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>123.1101375871002</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>29.89407122271366</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>124.7054865406959</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>196.8726638169149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>103.0576765518773</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>31.65207341077695</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>270.1089578470886</v>
+        <v>21.1960256463903</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>124.705486540696</v>
+        <v>236.898315044312</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>41.89891954550933</v>
+        <v>30.90698584635149</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>83.36635513833326</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.98990566424391</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>251.9715049194134</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25842,10 +25842,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>48.75693659211584</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.31591677926878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>20.25731383586557</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>239.8808657612244</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110562</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110565</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110562</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380334</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380338</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="F2" t="n">
         <v>645197.9485672192</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645197.9485672197</v>
       </c>
       <c r="G2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="I2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="J2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="K2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="L2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672199</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672198</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26435,10 +26435,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26447,7 +26447,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
@@ -26484,7 +26484,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-161100.3649264449</v>
+        <v>-161100.3649264447</v>
       </c>
       <c r="C6" t="n">
-        <v>428867.5142881001</v>
+        <v>428867.5142880996</v>
       </c>
       <c r="D6" t="n">
-        <v>428867.5142880994</v>
+        <v>428867.5142880998</v>
       </c>
       <c r="E6" t="n">
-        <v>4901.387295014031</v>
+        <v>5778.51942876367</v>
       </c>
       <c r="F6" t="n">
-        <v>530061.4237719107</v>
+        <v>530938.5559056598</v>
       </c>
       <c r="G6" t="n">
-        <v>530061.4237719104</v>
+        <v>530938.5559056599</v>
       </c>
       <c r="H6" t="n">
-        <v>530061.4237719105</v>
+        <v>530938.5559056601</v>
       </c>
       <c r="I6" t="n">
-        <v>530061.4237719104</v>
+        <v>530938.5559056599</v>
       </c>
       <c r="J6" t="n">
-        <v>353638.2045793172</v>
+        <v>354515.3367130671</v>
       </c>
       <c r="K6" t="n">
-        <v>530061.4237719104</v>
+        <v>530938.5559056601</v>
       </c>
       <c r="L6" t="n">
-        <v>530061.4237719106</v>
+        <v>530938.5559056601</v>
       </c>
       <c r="M6" t="n">
-        <v>395260.4085380732</v>
+        <v>396137.5406718231</v>
       </c>
       <c r="N6" t="n">
-        <v>530061.4237719106</v>
+        <v>530938.5559056604</v>
       </c>
       <c r="O6" t="n">
-        <v>530061.4237719104</v>
+        <v>530938.5559056603</v>
       </c>
       <c r="P6" t="n">
-        <v>530061.4237719105</v>
+        <v>530938.5559056603</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26752,34 +26752,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>116.7497573142986</v>
+        <v>31.51108588316112</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>126.5766164699368</v>
+        <v>120.4387434050069</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>28.44342906498821</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.9956887981475</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27821,13 +27821,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>97.21263156369781</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>147.063935414808</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>218.8388043680908</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>205.0767430241446</v>
       </c>
     </row>
     <row r="9">
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>43.93595590307806</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>27.8587466694552</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31524,7 +31524,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,7 +31536,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
